--- a/va_facility_data_2025-02-20/Lawton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lawton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6a6137146d7a426795b986bbf425cc35"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re5ee576cf5a345a1a0c4712d9b4aadef"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R68b8043d8fd44d7da7a0daf7e580a015"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3fbffa47106d49e994f9aeda94582c00"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1c36da6cc8d2494b854a785461257217"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R445db1ac3a4d4255b38ec2b67b55f75c"/>
   </x:sheets>
 </x:workbook>
 </file>
